--- a/prediksi.xlsx
+++ b/prediksi.xlsx
@@ -440,137 +440,137 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>375.5</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>305.5000000000001</v>
+        <v>332.6666666666667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>272.5</v>
+        <v>312.1666666666667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>357</v>
+        <v>333.1666666666667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>428.5</v>
+        <v>370.8333333333334</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>337.5</v>
+        <v>367.5000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>435.0000000000001</v>
+        <v>426.0000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>380.0000000000001</v>
+        <v>387.8333333333334</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>380.0000000000001</v>
+        <v>414.8333333333333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>435.5000000000001</v>
+        <v>431.1666666666667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>435.5000000000001</v>
+        <v>411.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>435.5000000000001</v>
+        <v>411.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>375.5</v>
+        <v>380.6666666666667</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>351</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>305.5000000000001</v>
+        <v>332.6666666666667</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>435.0000000000001</v>
+        <v>428.8333333333334</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>380.0000000000001</v>
+        <v>414.8333333333333</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>330.5000000000001</v>
+        <v>338.3333333333334</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>380.0000000000001</v>
+        <v>414.8333333333333</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>435.5000000000001</v>
+        <v>411.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>435.5000000000001</v>
+        <v>411.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>435.5000000000001</v>
+        <v>411.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>435.5000000000001</v>
+        <v>411.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>435.5000000000001</v>
+        <v>411.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>375.5</v>
+        <v>380.6666666666667</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>375.5</v>
+        <v>411.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>351</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
